--- a/data/publicTransport/TTC 2013.xlsx
+++ b/data/publicTransport/TTC 2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23860" yWindow="5380" windowWidth="22940" windowHeight="22900" tabRatio="500"/>
+    <workbookView xWindow="23940" yWindow="2420" windowWidth="22940" windowHeight="22900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Annual passenger trips</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>% GTA</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>People using public transportation</t>
+  </si>
+  <si>
+    <t>size pubT</t>
   </si>
 </sst>
 </file>
@@ -74,7 +83,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +92,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,13 +122,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,14 +163,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -143,6 +179,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -482,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -520,7 +570,7 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>525000000</v>
       </c>
     </row>
@@ -533,11 +583,16 @@
         <v>1438356.1643835616</v>
       </c>
     </row>
+    <row r="9" spans="2:7">
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="10" spans="2:7">
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -552,7 +607,7 @@
         <f>D7/2</f>
         <v>719178.08219178079</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="8">
         <f>D11/D4</f>
         <v>0.11986301369863013</v>
       </c>
@@ -643,9 +698,35 @@
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <f>SUM(D15:D18)</f>
         <v>525000000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="F22" s="4">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5">
+        <f>E15+E17</f>
+        <v>0.57714285714285718</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="F23" s="4">
+        <v>175</v>
+      </c>
+      <c r="G23" s="5">
+        <f>E16+E18</f>
+        <v>0.42285714285714288</v>
       </c>
     </row>
   </sheetData>
